--- a/m n° 001saccade.xlsx
+++ b/m n° 001saccade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="570" windowWidth="28215" windowHeight="11955" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="img_2.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="img_3.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="img_4.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="img_5.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="street.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_2.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_3.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_4.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_5.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="street.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/m n° 001saccade.xlsx
+++ b/m n° 001saccade.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,19 +642,19 @@
         <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
         <v>66.20758056640625</v>
       </c>
       <c r="H5" t="n">
-        <v>66.41163635253906</v>
+        <v>66.28766632080078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2040510028600693</v>
+        <v>0.08008150011301041</v>
       </c>
     </row>
     <row r="6">
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G6" t="n">
-        <v>66.7515869140625</v>
+        <v>66.28358459472656</v>
       </c>
       <c r="H6" t="n">
-        <v>66.7916259765625</v>
+        <v>66.36567687988281</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0400409996509552</v>
+        <v>0.08208800107240677</v>
       </c>
     </row>
     <row r="7">
@@ -698,25 +698,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>67.51958465576172</v>
+        <v>66.757568359375</v>
       </c>
       <c r="H7" t="n">
-        <v>67.56157684326172</v>
+        <v>66.79957580566406</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04199250042438507</v>
+        <v>0.04201050102710724</v>
       </c>
     </row>
     <row r="8">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-8</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>-23</v>
+        <v>89</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>110</v>
       </c>
       <c r="F8" t="n">
-        <v>-89</v>
+        <v>84</v>
       </c>
       <c r="G8" t="n">
-        <v>67.91165924072266</v>
+        <v>67.51958465576172</v>
       </c>
       <c r="H8" t="n">
-        <v>67.95758056640625</v>
+        <v>67.56157684326172</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04591749981045723</v>
+        <v>0.04199250042438507</v>
       </c>
     </row>
     <row r="9">
@@ -760,25 +760,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-116</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="n">
-        <v>-106</v>
+        <v>-23</v>
       </c>
       <c r="E9" t="n">
-        <v>-119</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="n">
-        <v>-91</v>
+        <v>-89</v>
       </c>
       <c r="G9" t="n">
-        <v>68.45174407958984</v>
+        <v>67.91165924072266</v>
       </c>
       <c r="H9" t="n">
-        <v>68.49562835693359</v>
+        <v>67.95758056640625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04388250038027763</v>
+        <v>0.04591749981045723</v>
       </c>
     </row>
     <row r="10">
@@ -791,25 +791,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>-116</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>-106</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>-119</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>-91</v>
       </c>
       <c r="G10" t="n">
-        <v>68.96994018554688</v>
+        <v>68.45174407958984</v>
       </c>
       <c r="H10" t="n">
-        <v>69.01158142089844</v>
+        <v>68.49562835693359</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0416405014693737</v>
+        <v>0.04388250038027763</v>
       </c>
     </row>
     <row r="11">
@@ -822,24 +822,55 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>122</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.96994018554688</v>
+      </c>
+      <c r="H11" t="n">
+        <v>69.01158142089844</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0416405014693737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>-3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>67</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>-34</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>70.48759460449219</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>70.53157043457031</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>0.04397099837660789</v>
       </c>
     </row>
@@ -965,19 +996,19 @@
         <v>-69</v>
       </c>
       <c r="E3" t="n">
-        <v>-110</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>-53</v>
+        <v>-91</v>
       </c>
       <c r="G3" t="n">
         <v>53.27154541015625</v>
       </c>
       <c r="H3" t="n">
-        <v>53.47562026977539</v>
+        <v>53.35359191894531</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2040774971246719</v>
+        <v>0.08204949647188187</v>
       </c>
     </row>
     <row r="4">
@@ -990,25 +1021,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="E4" t="n">
-        <v>-14</v>
+        <v>-91</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>-43</v>
       </c>
       <c r="G4" t="n">
-        <v>54.01604461669922</v>
+        <v>53.34962844848633</v>
       </c>
       <c r="H4" t="n">
-        <v>54.05765151977539</v>
+        <v>53.431640625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04160749912261963</v>
+        <v>0.08201199769973755</v>
       </c>
     </row>
     <row r="5">
@@ -1021,25 +1052,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>-55</v>
+        <v>-100</v>
       </c>
       <c r="E5" t="n">
-        <v>-67</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="n">
-        <v>-127</v>
+        <v>104</v>
       </c>
       <c r="G5" t="n">
-        <v>54.81957626342773</v>
+        <v>54.01604461669922</v>
       </c>
       <c r="H5" t="n">
-        <v>54.861572265625</v>
+        <v>54.05765151977539</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04199599847197533</v>
+        <v>0.04160749912261963</v>
       </c>
     </row>
     <row r="6">
@@ -1055,22 +1086,22 @@
         <v>-34</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>-55</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-67</v>
       </c>
       <c r="F6" t="n">
-        <v>124</v>
+        <v>-127</v>
       </c>
       <c r="G6" t="n">
-        <v>55.94355010986328</v>
+        <v>54.81957626342773</v>
       </c>
       <c r="H6" t="n">
-        <v>55.98361587524414</v>
+        <v>54.861572265625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04006800055503845</v>
+        <v>0.04199599847197533</v>
       </c>
     </row>
     <row r="7">
@@ -1083,25 +1114,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>-34</v>
       </c>
       <c r="D7" t="n">
-        <v>-31</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>56.76163864135742</v>
+        <v>55.94355010986328</v>
       </c>
       <c r="H7" t="n">
-        <v>56.80354309082031</v>
+        <v>55.98361587524414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0419050008058548</v>
+        <v>0.04006800055503845</v>
       </c>
     </row>
     <row r="8">
@@ -1110,29 +1141,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>107</v>
+        <v>-31</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>57.29579162597656</v>
+        <v>56.76163864135742</v>
       </c>
       <c r="H8" t="n">
-        <v>57.29965972900391</v>
+        <v>56.80354309082031</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00386850000359118</v>
+        <v>0.0419050008058548</v>
       </c>
     </row>
     <row r="9">
@@ -1145,25 +1176,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
-        <v>57.30368804931641</v>
+        <v>57.29579162597656</v>
       </c>
       <c r="H9" t="n">
-        <v>57.30768966674805</v>
+        <v>57.29965972900391</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004002499859780073</v>
+        <v>0.00386850000359118</v>
       </c>
     </row>
     <row r="10">
@@ -1176,25 +1207,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D10" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
         <v>107</v>
       </c>
       <c r="G10" t="n">
-        <v>57.31179809570312</v>
+        <v>57.30368804931641</v>
       </c>
       <c r="H10" t="n">
-        <v>57.3157844543457</v>
+        <v>57.30768966674805</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00398549996316433</v>
+        <v>0.004002499859780073</v>
       </c>
     </row>
     <row r="11">
@@ -1210,22 +1241,22 @@
         <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G11" t="n">
-        <v>57.31963729858398</v>
+        <v>57.31179809570312</v>
       </c>
       <c r="H11" t="n">
-        <v>57.32362365722656</v>
+        <v>57.3157844543457</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003988500218838453</v>
+        <v>0.00398549996316433</v>
       </c>
     </row>
     <row r="12">
@@ -1238,25 +1269,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" t="n">
-        <v>57.32758331298828</v>
+        <v>57.31963729858398</v>
       </c>
       <c r="H12" t="n">
-        <v>57.33161163330078</v>
+        <v>57.32362365722656</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004026500042527914</v>
+        <v>0.003988500218838453</v>
       </c>
     </row>
     <row r="13">
@@ -1265,29 +1296,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Micro</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
+        <v>107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+      <c r="F13" t="n">
         <v>104</v>
       </c>
-      <c r="E13" t="n">
-        <v>88</v>
-      </c>
-      <c r="F13" t="n">
-        <v>108</v>
-      </c>
       <c r="G13" t="n">
-        <v>57.33960342407227</v>
+        <v>57.32758331298828</v>
       </c>
       <c r="H13" t="n">
-        <v>57.38351058959961</v>
+        <v>57.33161163330078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04390550032258034</v>
+        <v>0.004026500042527914</v>
       </c>
     </row>
     <row r="14">
@@ -1300,25 +1331,25 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>87</v>
+      </c>
+      <c r="D14" t="n">
+        <v>104</v>
+      </c>
+      <c r="E14" t="n">
         <v>88</v>
       </c>
-      <c r="D14" t="n">
-        <v>112</v>
-      </c>
-      <c r="E14" t="n">
-        <v>122</v>
-      </c>
       <c r="F14" t="n">
-        <v>-13</v>
+        <v>108</v>
       </c>
       <c r="G14" t="n">
-        <v>57.37959671020508</v>
+        <v>57.33960342407227</v>
       </c>
       <c r="H14" t="n">
-        <v>57.58359146118164</v>
+        <v>57.38351058959961</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2039940059185028</v>
+        <v>0.04390550032258034</v>
       </c>
     </row>
     <row r="15">
@@ -1331,25 +1362,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
-        <v>-124</v>
+        <v>71</v>
       </c>
       <c r="F15" t="n">
-        <v>92</v>
+        <v>-48</v>
       </c>
       <c r="G15" t="n">
-        <v>58.08774566650391</v>
+        <v>57.37959671020508</v>
       </c>
       <c r="H15" t="n">
-        <v>58.13164138793945</v>
+        <v>57.46163177490234</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04389650002121925</v>
+        <v>0.08203549683094025</v>
       </c>
     </row>
     <row r="16">
@@ -1362,25 +1393,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>-124</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5036506652832</v>
+        <v>58.08774566650391</v>
       </c>
       <c r="H16" t="n">
-        <v>58.54961395263672</v>
+        <v>58.13164138793945</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04596599936485291</v>
+        <v>0.04389650002121925</v>
       </c>
     </row>
     <row r="17">
@@ -1393,56 +1424,56 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>52</v>
+      </c>
+      <c r="F17" t="n">
+        <v>38</v>
+      </c>
+      <c r="G17" t="n">
+        <v>58.5036506652832</v>
+      </c>
+      <c r="H17" t="n">
+        <v>58.54961395263672</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04596599936485291</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>-128</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>83</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>-10</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>59.18439102172852</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>59.22768020629883</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>0.04328899830579758</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>88</v>
-      </c>
-      <c r="D18" t="n">
-        <v>108</v>
-      </c>
-      <c r="E18" t="n">
-        <v>121</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>57.38351058959961</v>
-      </c>
-      <c r="H18" t="n">
-        <v>57.58760452270508</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2040954977273941</v>
       </c>
     </row>
     <row r="19">

--- a/m n° 001saccade.xlsx
+++ b/m n° 001saccade.xlsx
@@ -1580,7 +1580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,19 +1930,19 @@
         <v>-101</v>
       </c>
       <c r="E11" t="n">
-        <v>-113</v>
+        <v>-126</v>
       </c>
       <c r="F11" t="n">
-        <v>118</v>
+        <v>-124</v>
       </c>
       <c r="G11" t="n">
         <v>92.57962799072266</v>
       </c>
       <c r="H11" t="n">
-        <v>92.78366088867188</v>
+        <v>92.65962982177734</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2040330022573471</v>
+        <v>0.08000150322914124</v>
       </c>
     </row>
     <row r="12">
@@ -1955,25 +1955,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-111</v>
+        <v>-125</v>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>-125</v>
       </c>
       <c r="E12" t="n">
         <v>-109</v>
       </c>
       <c r="F12" t="n">
-        <v>-82</v>
+        <v>-124</v>
       </c>
       <c r="G12" t="n">
-        <v>92.7796630859375</v>
+        <v>92.65559387207031</v>
       </c>
       <c r="H12" t="n">
-        <v>92.98370361328125</v>
+        <v>92.73953247070312</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2040414959192276</v>
+        <v>0.08393750339746475</v>
       </c>
     </row>
     <row r="13">
@@ -1986,25 +1986,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-25</v>
+        <v>-106</v>
       </c>
       <c r="D13" t="n">
-        <v>-109</v>
+        <v>-127</v>
       </c>
       <c r="E13" t="n">
-        <v>-7</v>
+        <v>-110</v>
       </c>
       <c r="F13" t="n">
-        <v>-123</v>
+        <v>119</v>
       </c>
       <c r="G13" t="n">
-        <v>93.95645904541016</v>
+        <v>92.73557281494141</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99758911132812</v>
+        <v>92.81568908691406</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04112349823117256</v>
+        <v>0.08011599630117416</v>
       </c>
     </row>
     <row r="14">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-111</v>
+        <v>-114</v>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" t="n">
-        <v>-106</v>
+        <v>-89</v>
       </c>
       <c r="F14" t="n">
-        <v>-125</v>
+        <v>-94</v>
       </c>
       <c r="G14" t="n">
-        <v>94.9478759765625</v>
+        <v>92.81166839599609</v>
       </c>
       <c r="H14" t="n">
-        <v>94.98795318603516</v>
+        <v>92.89364624023438</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04008049890398979</v>
+        <v>0.08198349922895432</v>
       </c>
     </row>
     <row r="15">
@@ -2048,25 +2048,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-90</v>
+        <v>-25</v>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>-109</v>
       </c>
       <c r="E15" t="n">
-        <v>-99</v>
+        <v>-7</v>
       </c>
       <c r="F15" t="n">
-        <v>63</v>
+        <v>-123</v>
       </c>
       <c r="G15" t="n">
-        <v>95.52763366699219</v>
+        <v>93.95645904541016</v>
       </c>
       <c r="H15" t="n">
-        <v>95.56788635253906</v>
+        <v>93.99758911132812</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04025150090456009</v>
+        <v>0.04112349823117256</v>
       </c>
     </row>
     <row r="16">
@@ -2079,25 +2079,87 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>-111</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-106</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>94.9478759765625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>94.98795318603516</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04008049890398979</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-90</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55</v>
+      </c>
+      <c r="E17" t="n">
         <v>-99</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F17" t="n">
+        <v>63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>95.52763366699219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>95.56788635253906</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04025150090456009</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-99</v>
+      </c>
+      <c r="D18" t="n">
         <v>62</v>
       </c>
-      <c r="E16" t="n">
-        <v>-103</v>
-      </c>
-      <c r="F16" t="n">
-        <v>89</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="E18" t="n">
+        <v>-99</v>
+      </c>
+      <c r="F18" t="n">
+        <v>62</v>
+      </c>
+      <c r="G18" t="n">
         <v>95.5635986328125</v>
       </c>
-      <c r="H16" t="n">
-        <v>95.58358001708984</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.01998049952089787</v>
+      <c r="H18" t="n">
+        <v>95.5635986328125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
